--- a/Proyecto/Limpiado de datos y toma de decisiones/XLSX/correlacion.xlsx
+++ b/Proyecto/Limpiado de datos y toma de decisiones/XLSX/correlacion.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y26"/>
+  <dimension ref="A1:Z27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -380,105 +380,110 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>data.AMT_CREDIT_YEARS</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>data.AMT_CREDIT</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>data.AMT_ANNUITY</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>data.AMT_GOODS_PRICE</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>data.REGION_POPULATION_RELATIVE</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>data.DAYS_BIRTH</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>data.DAYS_EMPLOYED</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>data.DAYS_REGISTRATION</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>data.DAYS_ID_PUBLISH</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>data.OWN_CAR_AGE</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>data.FLAG_EMP_PHONE</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>data.FLAG_WORK_PHONE</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>data.FLAG_CONT_MOBILE</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>data.FLAG_PHONE</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>data.FLAG_EMAIL</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>data.CNT_FAM_MEMBERS</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>data.REGION_RATING_CLIENT</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>data.HOUR_APPR_PROCESS_START</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>data.APARTMENTS_AVG</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>data.DEF_CNT_SOCIAL_CIRCLE</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>data.DAYS_LAST_PHONE_CHANGE</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>data.AMT_REQ_CREDIT_BUREAU</t>
         </is>
@@ -498,57 +503,63 @@
         <v>-0.03</v>
       </c>
       <c r="E2">
-        <v>-0.04</v>
+        <v>-0.01</v>
       </c>
       <c r="F2">
+        <v>-0.04</v>
+      </c>
+      <c r="G2">
         <v>-0.02</v>
       </c>
       <c r="H2">
-        <v>-0.04</v>
+        <v>-0.05</v>
       </c>
       <c r="I2">
+        <v>-0.04</v>
+      </c>
+      <c r="J2">
         <v>0.07000000000000001</v>
       </c>
-      <c r="J2">
-        <v>-0.04</v>
-      </c>
       <c r="K2">
+        <v>-0.04</v>
+      </c>
+      <c r="L2">
         <v>0.06</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>0.07000000000000001</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>0.04</v>
       </c>
-      <c r="O2">
-        <v>-0</v>
-      </c>
       <c r="P2">
-        <v>0.01</v>
+        <v>-0</v>
       </c>
       <c r="Q2">
-        <v>-0.03</v>
+        <v>0.01</v>
       </c>
       <c r="R2">
-        <v>-0</v>
+        <v>-0.03</v>
       </c>
       <c r="S2">
+        <v>-0</v>
+      </c>
+      <c r="T2">
         <v>0.02</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>0.08</v>
       </c>
-      <c r="U2">
-        <v>-0.04</v>
-      </c>
-      <c r="W2">
+      <c r="V2">
+        <v>-0.04</v>
+      </c>
+      <c r="X2">
         <v>0.05</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>0.06</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>0.01</v>
       </c>
     </row>
@@ -569,54 +580,60 @@
         <v>0.01</v>
       </c>
       <c r="F3">
+        <v>0.01</v>
+      </c>
+      <c r="G3">
         <v>0.06</v>
       </c>
       <c r="H3">
+        <v>0.01</v>
+      </c>
+      <c r="I3">
         <v>0.04</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0.15</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>-0.15</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>0.08</v>
       </c>
-      <c r="L3">
-        <v>-0.03</v>
-      </c>
-      <c r="N3">
+      <c r="M3">
+        <v>-0.03</v>
+      </c>
+      <c r="O3">
         <v>0.15</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>0.04</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>0</v>
       </c>
-      <c r="Q3">
-        <v>-0.04</v>
-      </c>
       <c r="R3">
-        <v>0.01</v>
+        <v>-0.04</v>
       </c>
       <c r="S3">
+        <v>0.01</v>
+      </c>
+      <c r="T3">
         <v>0.1</v>
       </c>
-      <c r="T3">
-        <v>-0.03</v>
-      </c>
       <c r="U3">
-        <v>0.01</v>
-      </c>
-      <c r="W3">
-        <v>-0.02</v>
+        <v>-0.03</v>
+      </c>
+      <c r="V3">
+        <v>0.01</v>
       </c>
       <c r="X3">
-        <v>-0.01</v>
+        <v>-0.02</v>
       </c>
       <c r="Y3">
+        <v>-0.01</v>
+      </c>
+      <c r="Z3">
         <v>0</v>
       </c>
     </row>
@@ -634,57 +651,63 @@
         <v>0.05</v>
       </c>
       <c r="E4">
-        <v>0.01</v>
+        <v>-0.01</v>
       </c>
       <c r="F4">
+        <v>0.01</v>
+      </c>
+      <c r="G4">
         <v>0.03</v>
       </c>
       <c r="H4">
-        <v>-0.03</v>
+        <v>0</v>
       </c>
       <c r="I4">
+        <v>-0.03</v>
+      </c>
+      <c r="J4">
         <v>0.32</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>-0.23</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>0.18</v>
       </c>
-      <c r="L4">
-        <v>-0.03</v>
-      </c>
-      <c r="N4">
+      <c r="M4">
+        <v>-0.03</v>
+      </c>
+      <c r="O4">
         <v>0.23</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>0.06</v>
       </c>
-      <c r="P4">
-        <v>0.01</v>
-      </c>
       <c r="Q4">
-        <v>-0.02</v>
+        <v>0.01</v>
       </c>
       <c r="R4">
-        <v>0.01</v>
+        <v>-0.02</v>
       </c>
       <c r="S4">
+        <v>0.01</v>
+      </c>
+      <c r="T4">
         <v>0.87</v>
       </c>
-      <c r="T4">
-        <v>0.03</v>
-      </c>
       <c r="U4">
-        <v>0.01</v>
-      </c>
-      <c r="W4">
-        <v>-0.01</v>
+        <v>0.03</v>
+      </c>
+      <c r="V4">
+        <v>0.01</v>
       </c>
       <c r="X4">
-        <v>-0.02</v>
+        <v>-0.01</v>
       </c>
       <c r="Y4">
+        <v>-0.02</v>
+      </c>
+      <c r="Z4">
         <v>-0.03</v>
       </c>
     </row>
@@ -702,1296 +725,1553 @@
         <v>1</v>
       </c>
       <c r="E5">
+        <v>-0</v>
+      </c>
+      <c r="F5">
         <v>0.4</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>0.47</v>
       </c>
       <c r="H5">
+        <v>0.41</v>
+      </c>
+      <c r="I5">
         <v>0.21</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>0.08</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>-0.16</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>0.07000000000000001</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>0.02</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>0.16</v>
       </c>
-      <c r="O5">
-        <v>-0.04</v>
-      </c>
       <c r="P5">
-        <v>-0.01</v>
+        <v>-0.04</v>
       </c>
       <c r="Q5">
-        <v>0.01</v>
+        <v>-0.01</v>
       </c>
       <c r="R5">
+        <v>0.01</v>
+      </c>
+      <c r="S5">
         <v>0.09</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>0.06</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>-0.25</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>0.09</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>-0.05</v>
       </c>
-      <c r="X5">
-        <v>-0.04</v>
-      </c>
       <c r="Y5">
+        <v>-0.04</v>
+      </c>
+      <c r="Z5">
         <v>0.09</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>-0.04</v>
+        <v>-0.01</v>
       </c>
       <c r="B6">
         <v>0.01</v>
       </c>
       <c r="C6">
-        <v>0.01</v>
+        <v>-0.01</v>
       </c>
       <c r="D6">
-        <v>0.4</v>
+        <v>-0</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>0.78</v>
+        <v>-0.01</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.11</v>
+        <v>-0.01</v>
       </c>
       <c r="I6">
-        <v>-0.06</v>
+        <v>0.01</v>
       </c>
       <c r="J6">
-        <v>-0.08</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>-0</v>
+        <v>-0.01</v>
       </c>
       <c r="L6">
-        <v>-0.03</v>
-      </c>
-      <c r="N6">
-        <v>0.08</v>
+        <v>-0.01</v>
+      </c>
+      <c r="M6">
+        <v>-0</v>
       </c>
       <c r="O6">
-        <v>-0.01</v>
+        <v>0.01</v>
       </c>
       <c r="P6">
-        <v>0.01</v>
+        <v>-0</v>
       </c>
       <c r="Q6">
-        <v>0.01</v>
+        <v>-0.01</v>
       </c>
       <c r="R6">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="S6">
-        <v>0.07000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="T6">
-        <v>-0.14</v>
+        <v>-0.01</v>
       </c>
       <c r="U6">
-        <v>0.06</v>
-      </c>
-      <c r="W6">
-        <v>-0.01</v>
+        <v>-0.01</v>
+      </c>
+      <c r="V6">
+        <v>-0</v>
       </c>
       <c r="X6">
-        <v>-0.07000000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="Y6">
-        <v>0.03</v>
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>-0.02</v>
+        <v>-0.04</v>
       </c>
       <c r="B7">
+        <v>0.01</v>
+      </c>
+      <c r="C7">
+        <v>0.01</v>
+      </c>
+      <c r="D7">
+        <v>0.4</v>
+      </c>
+      <c r="E7">
+        <v>-0.01</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.78</v>
+      </c>
+      <c r="H7">
+        <v>0.99</v>
+      </c>
+      <c r="I7">
+        <v>0.11</v>
+      </c>
+      <c r="J7">
+        <v>-0.06</v>
+      </c>
+      <c r="K7">
+        <v>-0.08</v>
+      </c>
+      <c r="L7">
+        <v>-0</v>
+      </c>
+      <c r="M7">
+        <v>-0.03</v>
+      </c>
+      <c r="O7">
+        <v>0.08</v>
+      </c>
+      <c r="P7">
+        <v>-0.01</v>
+      </c>
+      <c r="Q7">
+        <v>0.01</v>
+      </c>
+      <c r="R7">
+        <v>0.01</v>
+      </c>
+      <c r="S7">
+        <v>0.04</v>
+      </c>
+      <c r="T7">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="U7">
+        <v>-0.14</v>
+      </c>
+      <c r="V7">
         <v>0.06</v>
       </c>
-      <c r="C7">
-        <v>0.03</v>
-      </c>
-      <c r="D7">
+      <c r="X7">
+        <v>-0.01</v>
+      </c>
+      <c r="Y7">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="Z7">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>-0.02</v>
+      </c>
+      <c r="B8">
+        <v>0.06</v>
+      </c>
+      <c r="C8">
+        <v>0.03</v>
+      </c>
+      <c r="D8">
         <v>0.47</v>
       </c>
-      <c r="E7">
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
         <v>0.78</v>
       </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="H7">
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>0.78</v>
+      </c>
+      <c r="I8">
         <v>0.14</v>
       </c>
-      <c r="I7">
-        <v>0.01</v>
-      </c>
-      <c r="J7">
+      <c r="J8">
+        <v>0.01</v>
+      </c>
+      <c r="K8">
         <v>-0.13</v>
       </c>
-      <c r="K7">
+      <c r="L8">
         <v>0.04</v>
       </c>
-      <c r="L7">
-        <v>-0.02</v>
-      </c>
-      <c r="N7">
+      <c r="M8">
+        <v>-0.02</v>
+      </c>
+      <c r="O8">
         <v>0.13</v>
       </c>
-      <c r="O7">
-        <v>-0.03</v>
-      </c>
-      <c r="P7">
+      <c r="P8">
+        <v>-0.03</v>
+      </c>
+      <c r="Q8">
         <v>0</v>
       </c>
-      <c r="Q7">
-        <v>0.01</v>
-      </c>
-      <c r="R7">
+      <c r="R8">
+        <v>0.01</v>
+      </c>
+      <c r="S8">
         <v>0.08</v>
       </c>
-      <c r="S7">
+      <c r="T8">
         <v>0.08</v>
       </c>
-      <c r="T7">
+      <c r="U8">
         <v>-0.16</v>
       </c>
-      <c r="U7">
+      <c r="V8">
         <v>0.06</v>
       </c>
-      <c r="W7">
-        <v>-0.03</v>
-      </c>
-      <c r="X7">
+      <c r="X8">
+        <v>-0.03</v>
+      </c>
+      <c r="Y8">
         <v>-0.06</v>
       </c>
-      <c r="Y7">
+      <c r="Z8">
         <v>0.04</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="G8">
-        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>-0.04</v>
+        <v>-0.05</v>
       </c>
       <c r="B9">
+        <v>0.01</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0.41</v>
+      </c>
+      <c r="E9">
+        <v>-0.01</v>
+      </c>
+      <c r="F9">
+        <v>0.99</v>
+      </c>
+      <c r="G9">
+        <v>0.78</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>0.12</v>
+      </c>
+      <c r="J9">
+        <v>-0.06</v>
+      </c>
+      <c r="K9">
+        <v>-0.08</v>
+      </c>
+      <c r="L9">
+        <v>-0</v>
+      </c>
+      <c r="M9">
+        <v>-0.03</v>
+      </c>
+      <c r="O9">
+        <v>0.08</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0.01</v>
+      </c>
+      <c r="R9">
+        <v>0.03</v>
+      </c>
+      <c r="S9">
         <v>0.04</v>
       </c>
-      <c r="C9">
-        <v>-0.03</v>
-      </c>
-      <c r="D9">
-        <v>0.21</v>
-      </c>
-      <c r="E9">
-        <v>0.11</v>
-      </c>
-      <c r="F9">
-        <v>0.14</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>-0.02</v>
-      </c>
-      <c r="J9">
-        <v>-0.01</v>
-      </c>
-      <c r="K9">
-        <v>-0.04</v>
-      </c>
-      <c r="L9">
-        <v>-0</v>
-      </c>
-      <c r="N9">
-        <v>0.01</v>
-      </c>
-      <c r="O9">
-        <v>-0.02</v>
-      </c>
-      <c r="P9">
-        <v>-0.03</v>
-      </c>
-      <c r="Q9">
-        <v>0.1</v>
-      </c>
-      <c r="R9">
-        <v>0.05</v>
-      </c>
-      <c r="S9">
-        <v>-0.04</v>
-      </c>
       <c r="T9">
-        <v>-0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="U9">
-        <v>0.17</v>
-      </c>
-      <c r="W9">
-        <v>-0.01</v>
+        <v>-0.14</v>
+      </c>
+      <c r="V9">
+        <v>0.08</v>
       </c>
       <c r="X9">
-        <v>-0.06</v>
+        <v>-0.02</v>
       </c>
       <c r="Y9">
-        <v>0.05</v>
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="Z9">
+        <v>0.03</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>0.07000000000000001</v>
+        <v>-0.04</v>
       </c>
       <c r="B10">
-        <v>0.15</v>
+        <v>0.04</v>
       </c>
       <c r="C10">
-        <v>0.32</v>
+        <v>-0.03</v>
       </c>
       <c r="D10">
-        <v>0.08</v>
+        <v>0.21</v>
       </c>
       <c r="E10">
-        <v>-0.06</v>
+        <v>0.01</v>
       </c>
       <c r="F10">
-        <v>0.01</v>
+        <v>0.11</v>
+      </c>
+      <c r="G10">
+        <v>0.14</v>
       </c>
       <c r="H10">
-        <v>-0.02</v>
+        <v>0.12</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>-0.61</v>
+        <v>-0.02</v>
       </c>
       <c r="K10">
-        <v>0.34</v>
+        <v>-0.01</v>
       </c>
       <c r="L10">
-        <v>0.27</v>
-      </c>
-      <c r="N10">
-        <v>0.62</v>
+        <v>-0.04</v>
+      </c>
+      <c r="M10">
+        <v>-0</v>
       </c>
       <c r="O10">
-        <v>0.18</v>
+        <v>0.01</v>
       </c>
       <c r="P10">
-        <v>-0.01</v>
+        <v>-0.02</v>
       </c>
       <c r="Q10">
-        <v>-0.04</v>
+        <v>-0.03</v>
       </c>
       <c r="R10">
         <v>0.1</v>
       </c>
       <c r="S10">
-        <v>0.28</v>
+        <v>0.05</v>
       </c>
       <c r="T10">
-        <v>0.01</v>
+        <v>-0.04</v>
       </c>
       <c r="U10">
-        <v>0.09</v>
-      </c>
-      <c r="W10">
-        <v>0.01</v>
+        <v>-0.5600000000000001</v>
+      </c>
+      <c r="V10">
+        <v>0.17</v>
       </c>
       <c r="X10">
-        <v>0.08</v>
+        <v>-0.01</v>
       </c>
       <c r="Y10">
         <v>-0.06</v>
       </c>
+      <c r="Z10">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>-0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="B11">
-        <v>-0.15</v>
+        <v>0.15</v>
       </c>
       <c r="C11">
-        <v>-0.23</v>
+        <v>0.32</v>
       </c>
       <c r="D11">
-        <v>-0.16</v>
+        <v>0.08</v>
       </c>
       <c r="E11">
-        <v>-0.08</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>-0.13</v>
+        <v>-0.06</v>
+      </c>
+      <c r="G11">
+        <v>0.01</v>
       </c>
       <c r="H11">
-        <v>-0.01</v>
+        <v>-0.06</v>
       </c>
       <c r="I11">
+        <v>-0.02</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
         <v>-0.61</v>
       </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11">
-        <v>-0.21</v>
-      </c>
       <c r="L11">
-        <v>-0.29</v>
-      </c>
-      <c r="N11">
-        <v>-1</v>
+        <v>0.34</v>
+      </c>
+      <c r="M11">
+        <v>0.27</v>
       </c>
       <c r="O11">
-        <v>-0.24</v>
+        <v>0.62</v>
       </c>
       <c r="P11">
-        <v>0.02</v>
+        <v>0.18</v>
       </c>
       <c r="Q11">
-        <v>0.03</v>
+        <v>-0.01</v>
       </c>
       <c r="R11">
-        <v>-0.07000000000000001</v>
+        <v>-0.04</v>
       </c>
       <c r="S11">
-        <v>-0.23</v>
+        <v>0.1</v>
       </c>
       <c r="T11">
-        <v>0.05</v>
+        <v>0.28</v>
       </c>
       <c r="U11">
-        <v>-0.09</v>
-      </c>
-      <c r="W11">
-        <v>0.02</v>
+        <v>0.01</v>
+      </c>
+      <c r="V11">
+        <v>0.09</v>
       </c>
       <c r="X11">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="Y11">
-        <v>0.01</v>
+        <v>0.08</v>
+      </c>
+      <c r="Z11">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>0.06</v>
+        <v>-0.04</v>
       </c>
       <c r="B12">
-        <v>0.08</v>
+        <v>-0.15</v>
       </c>
       <c r="C12">
-        <v>0.18</v>
+        <v>-0.23</v>
       </c>
       <c r="D12">
-        <v>0.07000000000000001</v>
+        <v>-0.16</v>
       </c>
       <c r="E12">
-        <v>-0</v>
+        <v>-0.01</v>
       </c>
       <c r="F12">
+        <v>-0.08</v>
+      </c>
+      <c r="G12">
+        <v>-0.13</v>
+      </c>
+      <c r="H12">
+        <v>-0.08</v>
+      </c>
+      <c r="I12">
+        <v>-0.01</v>
+      </c>
+      <c r="J12">
+        <v>-0.61</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>-0.21</v>
+      </c>
+      <c r="M12">
+        <v>-0.29</v>
+      </c>
+      <c r="O12">
+        <v>-1</v>
+      </c>
+      <c r="P12">
+        <v>-0.24</v>
+      </c>
+      <c r="Q12">
+        <v>0.02</v>
+      </c>
+      <c r="R12">
+        <v>0.03</v>
+      </c>
+      <c r="S12">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="T12">
+        <v>-0.23</v>
+      </c>
+      <c r="U12">
+        <v>0.05</v>
+      </c>
+      <c r="V12">
+        <v>-0.09</v>
+      </c>
+      <c r="X12">
+        <v>0.02</v>
+      </c>
+      <c r="Y12">
         <v>0.04</v>
       </c>
-      <c r="H12">
-        <v>-0.04</v>
-      </c>
-      <c r="I12">
-        <v>0.34</v>
-      </c>
-      <c r="J12">
-        <v>-0.21</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>0.12</v>
-      </c>
-      <c r="N12">
-        <v>0.21</v>
-      </c>
-      <c r="O12">
-        <v>0.06</v>
-      </c>
-      <c r="P12">
-        <v>-0</v>
-      </c>
-      <c r="Q12">
-        <v>-0.09</v>
-      </c>
-      <c r="R12">
-        <v>0.03</v>
-      </c>
-      <c r="S12">
-        <v>0.17</v>
-      </c>
-      <c r="T12">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="U12">
-        <v>-0.01</v>
-      </c>
-      <c r="W12">
-        <v>0.03</v>
-      </c>
-      <c r="X12">
-        <v>0.05</v>
-      </c>
-      <c r="Y12">
-        <v>-0.01</v>
+      <c r="Z12">
+        <v>0.01</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
+        <v>0.06</v>
+      </c>
+      <c r="B13">
+        <v>0.08</v>
+      </c>
+      <c r="C13">
+        <v>0.18</v>
+      </c>
+      <c r="D13">
         <v>0.07000000000000001</v>
       </c>
-      <c r="B13">
-        <v>-0.03</v>
-      </c>
-      <c r="C13">
-        <v>-0.03</v>
-      </c>
-      <c r="D13">
+      <c r="E13">
+        <v>-0.01</v>
+      </c>
+      <c r="F13">
+        <v>-0</v>
+      </c>
+      <c r="G13">
+        <v>0.04</v>
+      </c>
+      <c r="H13">
+        <v>-0</v>
+      </c>
+      <c r="I13">
+        <v>-0.04</v>
+      </c>
+      <c r="J13">
+        <v>0.34</v>
+      </c>
+      <c r="K13">
+        <v>-0.21</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.12</v>
+      </c>
+      <c r="O13">
+        <v>0.21</v>
+      </c>
+      <c r="P13">
+        <v>0.06</v>
+      </c>
+      <c r="Q13">
+        <v>-0</v>
+      </c>
+      <c r="R13">
+        <v>-0.09</v>
+      </c>
+      <c r="S13">
+        <v>0.03</v>
+      </c>
+      <c r="T13">
+        <v>0.17</v>
+      </c>
+      <c r="U13">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="V13">
+        <v>-0.01</v>
+      </c>
+      <c r="X13">
+        <v>0.03</v>
+      </c>
+      <c r="Y13">
+        <v>0.05</v>
+      </c>
+      <c r="Z13">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="B14">
+        <v>-0.03</v>
+      </c>
+      <c r="C14">
+        <v>-0.03</v>
+      </c>
+      <c r="D14">
         <v>0.02</v>
       </c>
-      <c r="E13">
-        <v>-0.03</v>
-      </c>
-      <c r="F13">
-        <v>-0.02</v>
-      </c>
-      <c r="H13">
-        <v>-0</v>
-      </c>
-      <c r="I13">
+      <c r="E14">
+        <v>-0</v>
+      </c>
+      <c r="F14">
+        <v>-0.03</v>
+      </c>
+      <c r="G14">
+        <v>-0.02</v>
+      </c>
+      <c r="H14">
+        <v>-0.03</v>
+      </c>
+      <c r="I14">
+        <v>-0</v>
+      </c>
+      <c r="J14">
         <v>0.27</v>
       </c>
-      <c r="J13">
+      <c r="K14">
         <v>-0.29</v>
       </c>
-      <c r="K13">
+      <c r="L14">
         <v>0.12</v>
       </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="N13">
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="O14">
         <v>0.29</v>
       </c>
-      <c r="O13">
+      <c r="P14">
         <v>0.06</v>
       </c>
-      <c r="P13">
-        <v>-0.03</v>
-      </c>
-      <c r="Q13">
-        <v>-0.03</v>
-      </c>
-      <c r="R13">
-        <v>0.03</v>
-      </c>
-      <c r="S13">
-        <v>-0.02</v>
-      </c>
-      <c r="T13">
-        <v>0.01</v>
-      </c>
-      <c r="U13">
+      <c r="Q14">
+        <v>-0.03</v>
+      </c>
+      <c r="R14">
+        <v>-0.03</v>
+      </c>
+      <c r="S14">
+        <v>0.03</v>
+      </c>
+      <c r="T14">
+        <v>-0.02</v>
+      </c>
+      <c r="U14">
+        <v>0.01</v>
+      </c>
+      <c r="V14">
         <v>0.02</v>
       </c>
-      <c r="W13">
+      <c r="X14">
         <v>0</v>
       </c>
-      <c r="X13">
+      <c r="Y14">
         <v>0.08</v>
       </c>
-      <c r="Y13">
+      <c r="Z14">
         <v>-0.05</v>
       </c>
     </row>
-    <row r="14">
-      <c r="M14">
-        <v>1</v>
-      </c>
-    </row>
     <row r="15">
-      <c r="A15">
-        <v>0.04</v>
-      </c>
-      <c r="B15">
-        <v>0.15</v>
-      </c>
-      <c r="C15">
-        <v>0.23</v>
-      </c>
-      <c r="D15">
-        <v>0.16</v>
-      </c>
-      <c r="E15">
-        <v>0.08</v>
-      </c>
-      <c r="F15">
-        <v>0.13</v>
-      </c>
-      <c r="H15">
-        <v>0.01</v>
-      </c>
-      <c r="I15">
-        <v>0.62</v>
-      </c>
-      <c r="J15">
-        <v>-1</v>
-      </c>
-      <c r="K15">
-        <v>0.21</v>
-      </c>
-      <c r="L15">
-        <v>0.29</v>
-      </c>
       <c r="N15">
         <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0.24</v>
-      </c>
-      <c r="P15">
-        <v>-0.02</v>
-      </c>
-      <c r="Q15">
-        <v>-0.03</v>
-      </c>
-      <c r="R15">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="S15">
-        <v>0.23</v>
-      </c>
-      <c r="T15">
-        <v>-0.05</v>
-      </c>
-      <c r="U15">
-        <v>0.09</v>
-      </c>
-      <c r="W15">
-        <v>-0.02</v>
-      </c>
-      <c r="X15">
-        <v>-0.04</v>
-      </c>
-      <c r="Y15">
-        <v>-0.01</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>-0</v>
+        <v>0.04</v>
       </c>
       <c r="B16">
-        <v>0.04</v>
+        <v>0.15</v>
       </c>
       <c r="C16">
-        <v>0.06</v>
+        <v>0.23</v>
       </c>
       <c r="D16">
-        <v>-0.04</v>
+        <v>0.16</v>
       </c>
       <c r="E16">
-        <v>-0.01</v>
+        <v>0.01</v>
       </c>
       <c r="F16">
-        <v>-0.03</v>
+        <v>0.08</v>
+      </c>
+      <c r="G16">
+        <v>0.13</v>
       </c>
       <c r="H16">
-        <v>-0.02</v>
+        <v>0.08</v>
       </c>
       <c r="I16">
-        <v>0.18</v>
+        <v>0.01</v>
       </c>
       <c r="J16">
-        <v>-0.24</v>
+        <v>0.62</v>
       </c>
       <c r="K16">
-        <v>0.06</v>
+        <v>-1</v>
       </c>
       <c r="L16">
-        <v>0.06</v>
-      </c>
-      <c r="N16">
+        <v>0.21</v>
+      </c>
+      <c r="M16">
+        <v>0.29</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16">
         <v>0.24</v>
       </c>
-      <c r="O16">
-        <v>1</v>
-      </c>
-      <c r="P16">
-        <v>0.02</v>
-      </c>
       <c r="Q16">
-        <v>0.3</v>
+        <v>-0.02</v>
       </c>
       <c r="R16">
-        <v>-0</v>
+        <v>-0.03</v>
       </c>
       <c r="S16">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="T16">
+        <v>0.23</v>
+      </c>
+      <c r="U16">
+        <v>-0.05</v>
+      </c>
+      <c r="V16">
         <v>0.09</v>
       </c>
-      <c r="T16">
-        <v>0.01</v>
-      </c>
-      <c r="U16">
-        <v>0.04</v>
-      </c>
-      <c r="W16">
-        <v>-0.01</v>
-      </c>
       <c r="X16">
-        <v>-0.06</v>
+        <v>-0.02</v>
       </c>
       <c r="Y16">
-        <v>-0.05</v>
+        <v>-0.04</v>
+      </c>
+      <c r="Z16">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>0.01</v>
+        <v>-0</v>
       </c>
       <c r="B17">
+        <v>0.04</v>
+      </c>
+      <c r="C17">
+        <v>0.06</v>
+      </c>
+      <c r="D17">
+        <v>-0.04</v>
+      </c>
+      <c r="E17">
+        <v>-0</v>
+      </c>
+      <c r="F17">
+        <v>-0.01</v>
+      </c>
+      <c r="G17">
+        <v>-0.03</v>
+      </c>
+      <c r="H17">
         <v>0</v>
       </c>
-      <c r="C17">
-        <v>0.01</v>
-      </c>
-      <c r="D17">
-        <v>-0.01</v>
-      </c>
-      <c r="E17">
-        <v>0.01</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>-0.03</v>
-      </c>
       <c r="I17">
-        <v>-0.01</v>
+        <v>-0.02</v>
       </c>
       <c r="J17">
+        <v>0.18</v>
+      </c>
+      <c r="K17">
+        <v>-0.24</v>
+      </c>
+      <c r="L17">
+        <v>0.06</v>
+      </c>
+      <c r="M17">
+        <v>0.06</v>
+      </c>
+      <c r="O17">
+        <v>0.24</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
         <v>0.02</v>
       </c>
-      <c r="K17">
-        <v>-0</v>
-      </c>
-      <c r="L17">
-        <v>-0.03</v>
-      </c>
-      <c r="N17">
-        <v>-0.02</v>
-      </c>
-      <c r="O17">
-        <v>0.02</v>
-      </c>
-      <c r="P17">
-        <v>1</v>
-      </c>
-      <c r="Q17">
-        <v>-0.02</v>
-      </c>
       <c r="R17">
+        <v>0.3</v>
+      </c>
+      <c r="S17">
+        <v>-0</v>
+      </c>
+      <c r="T17">
+        <v>0.09</v>
+      </c>
+      <c r="U17">
+        <v>0.01</v>
+      </c>
+      <c r="V17">
+        <v>0.04</v>
+      </c>
+      <c r="X17">
+        <v>-0.01</v>
+      </c>
+      <c r="Y17">
         <v>-0.06</v>
       </c>
-      <c r="S17">
-        <v>0.01</v>
-      </c>
-      <c r="T17">
-        <v>0.03</v>
-      </c>
-      <c r="U17">
-        <v>0.02</v>
-      </c>
-      <c r="W17">
-        <v>0</v>
-      </c>
-      <c r="X17">
-        <v>-0.01</v>
-      </c>
-      <c r="Y17">
-        <v>-0.01</v>
+      <c r="Z17">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>-0.03</v>
+        <v>0.01</v>
       </c>
       <c r="B18">
-        <v>-0.04</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>-0.02</v>
+        <v>0.01</v>
       </c>
       <c r="D18">
-        <v>0.01</v>
+        <v>-0.01</v>
       </c>
       <c r="E18">
-        <v>0.01</v>
+        <v>-0.01</v>
       </c>
       <c r="F18">
         <v>0.01</v>
       </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
       <c r="H18">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="I18">
-        <v>-0.04</v>
+        <v>-0.03</v>
       </c>
       <c r="J18">
-        <v>0.03</v>
+        <v>-0.01</v>
       </c>
       <c r="K18">
-        <v>-0.09</v>
+        <v>0.02</v>
       </c>
       <c r="L18">
-        <v>-0.03</v>
-      </c>
-      <c r="N18">
+        <v>-0</v>
+      </c>
+      <c r="M18">
         <v>-0.03</v>
       </c>
       <c r="O18">
-        <v>0.3</v>
+        <v>-0.02</v>
       </c>
       <c r="P18">
-        <v>-0.02</v>
+        <v>0.02</v>
       </c>
       <c r="Q18">
         <v>1</v>
       </c>
       <c r="R18">
+        <v>-0.02</v>
+      </c>
+      <c r="S18">
+        <v>-0.06</v>
+      </c>
+      <c r="T18">
+        <v>0.01</v>
+      </c>
+      <c r="U18">
+        <v>0.03</v>
+      </c>
+      <c r="V18">
         <v>0.02</v>
       </c>
-      <c r="S18">
-        <v>-0.01</v>
-      </c>
-      <c r="T18">
-        <v>-0.11</v>
-      </c>
-      <c r="U18">
-        <v>0.08</v>
-      </c>
-      <c r="W18">
-        <v>-0.04</v>
-      </c>
       <c r="X18">
-        <v>-0.09</v>
+        <v>0</v>
       </c>
       <c r="Y18">
-        <v>-0</v>
+        <v>-0.01</v>
+      </c>
+      <c r="Z18">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>-0</v>
+        <v>-0.03</v>
       </c>
       <c r="B19">
-        <v>0.01</v>
+        <v>-0.04</v>
       </c>
       <c r="C19">
-        <v>0.01</v>
+        <v>-0.02</v>
       </c>
       <c r="D19">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
       <c r="E19">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="F19">
-        <v>0.08</v>
+        <v>0.01</v>
+      </c>
+      <c r="G19">
+        <v>0.01</v>
       </c>
       <c r="H19">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I19">
         <v>0.1</v>
       </c>
       <c r="J19">
-        <v>-0.07000000000000001</v>
+        <v>-0.04</v>
       </c>
       <c r="K19">
         <v>0.03</v>
       </c>
       <c r="L19">
-        <v>0.03</v>
-      </c>
-      <c r="N19">
-        <v>0.07000000000000001</v>
+        <v>-0.09</v>
+      </c>
+      <c r="M19">
+        <v>-0.03</v>
       </c>
       <c r="O19">
-        <v>-0</v>
+        <v>-0.03</v>
       </c>
       <c r="P19">
-        <v>-0.06</v>
+        <v>0.3</v>
       </c>
       <c r="Q19">
+        <v>-0.02</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+      <c r="S19">
         <v>0.02</v>
       </c>
-      <c r="R19">
-        <v>1</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
       <c r="T19">
-        <v>-0.04</v>
+        <v>-0.01</v>
       </c>
       <c r="U19">
-        <v>0.01</v>
-      </c>
-      <c r="W19">
-        <v>0.01</v>
+        <v>-0.11</v>
+      </c>
+      <c r="V19">
+        <v>0.08</v>
       </c>
       <c r="X19">
-        <v>-0.03</v>
+        <v>-0.04</v>
       </c>
       <c r="Y19">
-        <v>0.06</v>
+        <v>-0.09</v>
+      </c>
+      <c r="Z19">
+        <v>-0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
+        <v>-0</v>
+      </c>
+      <c r="B20">
+        <v>0.01</v>
+      </c>
+      <c r="C20">
+        <v>0.01</v>
+      </c>
+      <c r="D20">
+        <v>0.09</v>
+      </c>
+      <c r="E20">
+        <v>0.01</v>
+      </c>
+      <c r="F20">
+        <v>0.04</v>
+      </c>
+      <c r="G20">
+        <v>0.08</v>
+      </c>
+      <c r="H20">
+        <v>0.04</v>
+      </c>
+      <c r="I20">
+        <v>0.05</v>
+      </c>
+      <c r="J20">
+        <v>0.1</v>
+      </c>
+      <c r="K20">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="L20">
+        <v>0.03</v>
+      </c>
+      <c r="M20">
+        <v>0.03</v>
+      </c>
+      <c r="O20">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="P20">
+        <v>-0</v>
+      </c>
+      <c r="Q20">
+        <v>-0.06</v>
+      </c>
+      <c r="R20">
         <v>0.02</v>
       </c>
-      <c r="B20">
-        <v>0.1</v>
-      </c>
-      <c r="C20">
-        <v>0.87</v>
-      </c>
-      <c r="D20">
+      <c r="S20">
+        <v>1</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>-0.04</v>
+      </c>
+      <c r="V20">
+        <v>0.01</v>
+      </c>
+      <c r="X20">
+        <v>0.01</v>
+      </c>
+      <c r="Y20">
+        <v>-0.03</v>
+      </c>
+      <c r="Z20">
         <v>0.06</v>
-      </c>
-      <c r="E20">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="F20">
-        <v>0.08</v>
-      </c>
-      <c r="H20">
-        <v>-0.04</v>
-      </c>
-      <c r="I20">
-        <v>0.28</v>
-      </c>
-      <c r="J20">
-        <v>-0.23</v>
-      </c>
-      <c r="K20">
-        <v>0.17</v>
-      </c>
-      <c r="L20">
-        <v>-0.02</v>
-      </c>
-      <c r="N20">
-        <v>0.23</v>
-      </c>
-      <c r="O20">
-        <v>0.09</v>
-      </c>
-      <c r="P20">
-        <v>0.01</v>
-      </c>
-      <c r="Q20">
-        <v>-0.01</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <v>1</v>
-      </c>
-      <c r="T20">
-        <v>0.03</v>
-      </c>
-      <c r="U20">
-        <v>-0</v>
-      </c>
-      <c r="W20">
-        <v>-0.01</v>
-      </c>
-      <c r="X20">
-        <v>-0.03</v>
-      </c>
-      <c r="Y20">
-        <v>-0.01</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
+        <v>0.02</v>
+      </c>
+      <c r="B21">
+        <v>0.1</v>
+      </c>
+      <c r="C21">
+        <v>0.87</v>
+      </c>
+      <c r="D21">
+        <v>0.06</v>
+      </c>
+      <c r="E21">
+        <v>-0.01</v>
+      </c>
+      <c r="F21">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G21">
         <v>0.08</v>
       </c>
-      <c r="B21">
-        <v>-0.03</v>
-      </c>
-      <c r="C21">
-        <v>0.03</v>
-      </c>
-      <c r="D21">
-        <v>-0.25</v>
-      </c>
-      <c r="E21">
-        <v>-0.14</v>
-      </c>
-      <c r="F21">
-        <v>-0.16</v>
-      </c>
       <c r="H21">
-        <v>-0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="I21">
-        <v>0.01</v>
+        <v>-0.04</v>
       </c>
       <c r="J21">
-        <v>0.05</v>
+        <v>0.28</v>
       </c>
       <c r="K21">
-        <v>0.07000000000000001</v>
+        <v>-0.23</v>
       </c>
       <c r="L21">
-        <v>0.01</v>
-      </c>
-      <c r="N21">
-        <v>-0.05</v>
+        <v>0.17</v>
+      </c>
+      <c r="M21">
+        <v>-0.02</v>
       </c>
       <c r="O21">
-        <v>0.01</v>
+        <v>0.23</v>
       </c>
       <c r="P21">
-        <v>0.03</v>
+        <v>0.09</v>
       </c>
       <c r="Q21">
-        <v>-0.11</v>
+        <v>0.01</v>
       </c>
       <c r="R21">
-        <v>-0.04</v>
+        <v>-0.01</v>
       </c>
       <c r="S21">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="T21">
         <v>1</v>
       </c>
       <c r="U21">
-        <v>-0.27</v>
-      </c>
-      <c r="W21">
-        <v>0.04</v>
+        <v>0.03</v>
+      </c>
+      <c r="V21">
+        <v>-0</v>
       </c>
       <c r="X21">
-        <v>0.04</v>
+        <v>-0.01</v>
       </c>
       <c r="Y21">
-        <v>-0.04</v>
+        <v>-0.03</v>
+      </c>
+      <c r="Z21">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>-0.04</v>
+        <v>0.08</v>
       </c>
       <c r="B22">
-        <v>0.01</v>
+        <v>-0.03</v>
       </c>
       <c r="C22">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="D22">
+        <v>-0.25</v>
+      </c>
+      <c r="E22">
+        <v>-0.01</v>
+      </c>
+      <c r="F22">
+        <v>-0.14</v>
+      </c>
+      <c r="G22">
+        <v>-0.16</v>
+      </c>
+      <c r="H22">
+        <v>-0.14</v>
+      </c>
+      <c r="I22">
+        <v>-0.5600000000000001</v>
+      </c>
+      <c r="J22">
+        <v>0.01</v>
+      </c>
+      <c r="K22">
+        <v>0.05</v>
+      </c>
+      <c r="L22">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="M22">
+        <v>0.01</v>
+      </c>
+      <c r="O22">
+        <v>-0.05</v>
+      </c>
+      <c r="P22">
+        <v>0.01</v>
+      </c>
+      <c r="Q22">
+        <v>0.03</v>
+      </c>
+      <c r="R22">
+        <v>-0.11</v>
+      </c>
+      <c r="S22">
+        <v>-0.04</v>
+      </c>
+      <c r="T22">
+        <v>0.03</v>
+      </c>
+      <c r="U22">
+        <v>1</v>
+      </c>
+      <c r="V22">
+        <v>-0.27</v>
+      </c>
+      <c r="X22">
+        <v>0.04</v>
+      </c>
+      <c r="Y22">
+        <v>0.04</v>
+      </c>
+      <c r="Z22">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>-0.04</v>
+      </c>
+      <c r="B23">
+        <v>0.01</v>
+      </c>
+      <c r="C23">
+        <v>0.01</v>
+      </c>
+      <c r="D23">
         <v>0.09</v>
       </c>
-      <c r="E22">
+      <c r="E23">
+        <v>-0</v>
+      </c>
+      <c r="F23">
         <v>0.06</v>
       </c>
-      <c r="F22">
+      <c r="G23">
         <v>0.06</v>
       </c>
-      <c r="H22">
+      <c r="H23">
+        <v>0.08</v>
+      </c>
+      <c r="I23">
         <v>0.17</v>
       </c>
-      <c r="I22">
+      <c r="J23">
         <v>0.09</v>
       </c>
-      <c r="J22">
+      <c r="K23">
         <v>-0.09</v>
       </c>
-      <c r="K22">
-        <v>-0.01</v>
-      </c>
-      <c r="L22">
+      <c r="L23">
+        <v>-0.01</v>
+      </c>
+      <c r="M23">
         <v>0.02</v>
       </c>
-      <c r="N22">
+      <c r="O23">
         <v>0.09</v>
       </c>
-      <c r="O22">
+      <c r="P23">
         <v>0.04</v>
       </c>
-      <c r="P22">
+      <c r="Q23">
         <v>0.02</v>
       </c>
-      <c r="Q22">
+      <c r="R23">
         <v>0.08</v>
       </c>
-      <c r="R22">
-        <v>0.01</v>
-      </c>
-      <c r="S22">
-        <v>-0</v>
-      </c>
-      <c r="T22">
+      <c r="S23">
+        <v>0.01</v>
+      </c>
+      <c r="T23">
+        <v>-0</v>
+      </c>
+      <c r="U23">
         <v>-0.27</v>
       </c>
-      <c r="U22">
-        <v>1</v>
-      </c>
-      <c r="W22">
-        <v>-0.01</v>
-      </c>
-      <c r="X22">
-        <v>-0.04</v>
-      </c>
-      <c r="Y22">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="23">
       <c r="V23">
         <v>1</v>
       </c>
+      <c r="X23">
+        <v>-0.01</v>
+      </c>
+      <c r="Y23">
+        <v>-0.04</v>
+      </c>
+      <c r="Z23">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24">
-        <v>0.05</v>
-      </c>
-      <c r="B24">
-        <v>-0.02</v>
-      </c>
-      <c r="C24">
-        <v>-0.01</v>
-      </c>
-      <c r="D24">
-        <v>-0.05</v>
-      </c>
-      <c r="E24">
-        <v>-0.01</v>
-      </c>
-      <c r="F24">
-        <v>-0.03</v>
-      </c>
-      <c r="H24">
-        <v>-0.01</v>
-      </c>
-      <c r="I24">
-        <v>0.01</v>
-      </c>
-      <c r="J24">
-        <v>0.02</v>
-      </c>
-      <c r="K24">
-        <v>0.03</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <v>-0.02</v>
-      </c>
-      <c r="O24">
-        <v>-0.01</v>
-      </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>-0.04</v>
-      </c>
-      <c r="R24">
-        <v>0.01</v>
-      </c>
-      <c r="S24">
-        <v>-0.01</v>
-      </c>
-      <c r="T24">
-        <v>0.04</v>
-      </c>
-      <c r="U24">
-        <v>-0.01</v>
-      </c>
       <c r="W24">
         <v>1</v>
-      </c>
-      <c r="X24">
-        <v>0.01</v>
-      </c>
-      <c r="Y24">
-        <v>-0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="B25">
-        <v>-0.01</v>
+        <v>-0.02</v>
       </c>
       <c r="C25">
-        <v>-0.02</v>
+        <v>-0.01</v>
       </c>
       <c r="D25">
-        <v>-0.04</v>
+        <v>-0.05</v>
       </c>
       <c r="E25">
-        <v>-0.07000000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="F25">
-        <v>-0.06</v>
+        <v>-0.01</v>
+      </c>
+      <c r="G25">
+        <v>-0.03</v>
       </c>
       <c r="H25">
-        <v>-0.06</v>
+        <v>-0.02</v>
       </c>
       <c r="I25">
-        <v>0.08</v>
+        <v>-0.01</v>
       </c>
       <c r="J25">
+        <v>0.01</v>
+      </c>
+      <c r="K25">
+        <v>0.02</v>
+      </c>
+      <c r="L25">
+        <v>0.03</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>-0.02</v>
+      </c>
+      <c r="P25">
+        <v>-0.01</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>-0.04</v>
+      </c>
+      <c r="S25">
+        <v>0.01</v>
+      </c>
+      <c r="T25">
+        <v>-0.01</v>
+      </c>
+      <c r="U25">
         <v>0.04</v>
       </c>
-      <c r="K25">
-        <v>0.05</v>
-      </c>
-      <c r="L25">
-        <v>0.08</v>
-      </c>
-      <c r="N25">
-        <v>-0.04</v>
-      </c>
-      <c r="O25">
-        <v>-0.06</v>
-      </c>
-      <c r="P25">
-        <v>-0.01</v>
-      </c>
-      <c r="Q25">
-        <v>-0.09</v>
-      </c>
-      <c r="R25">
-        <v>-0.03</v>
-      </c>
-      <c r="S25">
-        <v>-0.03</v>
-      </c>
-      <c r="T25">
-        <v>0.04</v>
-      </c>
-      <c r="U25">
-        <v>-0.04</v>
-      </c>
-      <c r="W25">
-        <v>0.01</v>
+      <c r="V25">
+        <v>-0.01</v>
       </c>
       <c r="X25">
         <v>1</v>
       </c>
       <c r="Y25">
-        <v>-0.13</v>
+        <v>0.01</v>
+      </c>
+      <c r="Z25">
+        <v>-0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="B26">
+        <v>-0.01</v>
+      </c>
+      <c r="C26">
+        <v>-0.02</v>
+      </c>
+      <c r="D26">
+        <v>-0.04</v>
+      </c>
+      <c r="E26">
         <v>0</v>
       </c>
-      <c r="C26">
-        <v>-0.03</v>
-      </c>
-      <c r="D26">
-        <v>0.09</v>
-      </c>
-      <c r="E26">
-        <v>0.03</v>
-      </c>
       <c r="F26">
-        <v>0.04</v>
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="G26">
+        <v>-0.06</v>
       </c>
       <c r="H26">
-        <v>0.05</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="I26">
         <v>-0.06</v>
       </c>
       <c r="J26">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="K26">
-        <v>-0.01</v>
+        <v>0.04</v>
       </c>
       <c r="L26">
+        <v>0.05</v>
+      </c>
+      <c r="M26">
+        <v>0.08</v>
+      </c>
+      <c r="O26">
+        <v>-0.04</v>
+      </c>
+      <c r="P26">
+        <v>-0.06</v>
+      </c>
+      <c r="Q26">
+        <v>-0.01</v>
+      </c>
+      <c r="R26">
+        <v>-0.09</v>
+      </c>
+      <c r="S26">
+        <v>-0.03</v>
+      </c>
+      <c r="T26">
+        <v>-0.03</v>
+      </c>
+      <c r="U26">
+        <v>0.04</v>
+      </c>
+      <c r="V26">
+        <v>-0.04</v>
+      </c>
+      <c r="X26">
+        <v>0.01</v>
+      </c>
+      <c r="Y26">
+        <v>1</v>
+      </c>
+      <c r="Z26">
+        <v>-0.13</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>0.01</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>-0.03</v>
+      </c>
+      <c r="D27">
+        <v>0.09</v>
+      </c>
+      <c r="E27">
+        <v>-0.01</v>
+      </c>
+      <c r="F27">
+        <v>0.03</v>
+      </c>
+      <c r="G27">
+        <v>0.04</v>
+      </c>
+      <c r="H27">
+        <v>0.03</v>
+      </c>
+      <c r="I27">
+        <v>0.05</v>
+      </c>
+      <c r="J27">
+        <v>-0.06</v>
+      </c>
+      <c r="K27">
+        <v>0.01</v>
+      </c>
+      <c r="L27">
+        <v>-0.01</v>
+      </c>
+      <c r="M27">
         <v>-0.05</v>
       </c>
-      <c r="N26">
-        <v>-0.01</v>
-      </c>
-      <c r="O26">
+      <c r="O27">
+        <v>-0.01</v>
+      </c>
+      <c r="P27">
         <v>-0.05</v>
       </c>
-      <c r="P26">
-        <v>-0.01</v>
-      </c>
-      <c r="Q26">
-        <v>-0</v>
-      </c>
-      <c r="R26">
+      <c r="Q27">
+        <v>-0.01</v>
+      </c>
+      <c r="R27">
+        <v>-0</v>
+      </c>
+      <c r="S27">
         <v>0.06</v>
       </c>
-      <c r="S26">
-        <v>-0.01</v>
-      </c>
-      <c r="T26">
-        <v>-0.04</v>
-      </c>
-      <c r="U26">
-        <v>0.01</v>
-      </c>
-      <c r="W26">
-        <v>-0</v>
-      </c>
-      <c r="X26">
+      <c r="T27">
+        <v>-0.01</v>
+      </c>
+      <c r="U27">
+        <v>-0.04</v>
+      </c>
+      <c r="V27">
+        <v>0.01</v>
+      </c>
+      <c r="X27">
+        <v>-0</v>
+      </c>
+      <c r="Y27">
         <v>-0.13</v>
       </c>
-      <c r="Y26">
+      <c r="Z27">
         <v>1</v>
       </c>
     </row>
